--- a/plots/basic_stats/two_var_stats/allmus_size_vs_accreditation.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_size_vs_accreditation.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C2">
-        <v>1724</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C3">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C4">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
